--- a/try.xlsx
+++ b/try.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_alldata\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="P2" s="63">
         <f ca="1">_xlfn.DAYS(TODAY(),F2)</f>
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="Q2">
         <f ca="1">DATEDIF(F2,TODAY(),"Y")</f>
